--- a/biology/Histoire de la zoologie et de la botanique/Souvenirs_entomologiques/Souvenirs_entomologiques.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Souvenirs_entomologiques/Souvenirs_entomologiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Souvenirs entomologiques est l'œuvre maîtresse de Jean-Henri Fabre (1823-1915), entomologiste français qui a passé une grande partie de sa vie à étudier les insectes vivants dans leur biotope. 
 Œuvre imposante, avec ses quatre mille pages publiées en dix séries, entre 1879 et 1907, les Souvenirs entomologiques rapportent plus d'un demi-siècle d'études et de descriptions de la vie et des mœurs des insectes, notamment les coléoptères et les hyménoptères. 
-La rigueur de la méthode scientifique, la recherche sur le terrain et les expérimentations, les réflexions philosophiques, y sont intégrées dans une foule de souvenirs d'enfance, de récits émouvants sur les personnages étranges du monde des insectes, mais aussi les joies de la découverte et les drames de la vie. À la fois, scientifique, poétique et lyrique, l'ensemble constitue un « hymne à la nature et à la connaissance »[1],[2].   
+La rigueur de la méthode scientifique, la recherche sur le terrain et les expérimentations, les réflexions philosophiques, y sont intégrées dans une foule de souvenirs d'enfance, de récits émouvants sur les personnages étranges du monde des insectes, mais aussi les joies de la découverte et les drames de la vie. À la fois, scientifique, poétique et lyrique, l'ensemble constitue un « hymne à la nature et à la connaissance »,.   
 La onzième et dernière série consiste en une biographie du Dr G.-V. Legros et un index de l'ouvrage.
 </t>
         </is>
@@ -517,18 +529,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Souvenirs entomologiques, Paris : 1879 - 324 p.
-Insectes décrits : 
+          <t>Souvenirs entomologiques, Paris : 1879 - 324 p.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Insectes décrits : 
 le scarabée sacré
 le cerceris bupresticide
 le cerceris tuberculé
-le sphex à aile jaune[3]
-le sphex languedocien[4]
+le sphex à aile jaune
+le sphex languedocien
 les ammophiles
 les bembex
-les chalicodomes
-Nouveaux souvenirs entomologiques, Paris : 1882 - 352 p.
-Insectes étudiés :
+les chalicodomes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nouveaux souvenirs entomologiques, Paris : 1882 - 352 p.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Insectes étudiés :
 l'ammophile hérissée
 le ver gris
 les eumènes
@@ -542,9 +593,43 @@
 les sitaris
 la larve primaire des sitaris
 la larve primaire des méloés
-l'hypermétamorphose
-Souvenirs entomologiques - Troisième série, Paris : 1886 - 460 p.
-Insectes étudiés : 
+l'hypermétamorphose</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Troisième série, Paris : 1886 - 460 p.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Insectes étudiés : 
 les scolies
 la larve de cétoine
 les tribulations de la maçonne
@@ -552,9 +637,43 @@
 les leucopsis
 les tachytes
 cérocomes, mylabres et zonitis
-les osmies
-Souvenirs entomologiques - Quatrième série, Paris : 1891 - 330 p.
-Insectes étudiés :
+les osmies</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Quatrième série, Paris : 1891 - 330 p.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Insectes étudiés :
 Le Pélopée
 les agénies. Les vivres du pélopée
 les mégachiles
@@ -567,9 +686,43 @@
 méthode des calicurgues
 le venin des apiaires
 le capricorne
-le problème du sirex
-Souvenirs entomologiques - Cinquième série, Paris : 1897 - 358 p.
-Insectes étudiés :
+le problème du sirex</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Cinquième série, Paris : 1897 - 358 p.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Insectes étudiés :
 le scarabée sacré
 le scarabée à large cou
 les gymnopleures
@@ -580,9 +733,43 @@
 la fable de la cigale et la fourmi
 la cigale
 la mante religieuse
-l'empuse
-Souvenirs entomologiques - Sixième série, Paris : 1899 - 420 p.
-Insectes étudiés :
+l'empuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Sixième série, Paris : 1899 - 420 p.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Insectes étudiés :
 le sisyphe
 le copris lunaire
 l'onitis bison
@@ -593,9 +780,43 @@
 le grillon
 les acridiens
 la processionnaire du pin. La ponte. L'éclosion
-la chenille de l’arbousier
-Souvenirs entomologiques - Septième série, Paris : 1900 - 396 p.
-Insectes étudiés : 
+la chenille de l’arbousier</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Septième série, Paris : 1900 - 396 p.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Insectes étudiés : 
 le scarite géant
 les vieux charançons
 le larin maculé
@@ -609,9 +830,43 @@
 la phrygane
 les psychés
 le grand-paon
-le minime à bande
-Souvenirs entomologiques - Huitième série, Paris : 1903 - 380 p.
-Insectes étudiés : 
+le minime à bande</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Huitième série, Paris : 1903 - 380 p.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Insectes étudiés : 
 les cétoines
 la bruche du pois
 la bruche des haricots
@@ -627,9 +882,43 @@
 la guêpe
 la volucelle
 l'épeire fasciée
-la lycose de Narbonne
-Souvenirs entomologiques - Neuvième série, Paris : 1905 - 376 p.
-Insectes étudiés : 
+la lycose de Narbonne</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Neuvième série, Paris : 1905 - 376 p.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Insectes étudiés : 
 la lycose de Narbonne
 l'exode des araignées
 l'araignée-crabe
@@ -638,9 +927,43 @@
 l'araignée clotho
 le scorpion languedocien
 la dorthésie
-le kermès de yeuse
-Souvenirs entomologiques - Dixième série, Paris : 1907 - 376 p.
-Insectes étudiés : 
+le kermès de yeuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Table des matières</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Souvenirs entomologiques - Dixième série, Paris : 1907 - 376 p.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Insectes étudiés : 
 Le minotaure typhée
 le cione
 l'ergate
@@ -658,41 +981,80 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Souvenirs_entomologiques</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Rééditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rééditions de l'œuvre intégrale
-1924 : Librairie Delagrave, édition définitive illustrée, 10 volumes de souvenirs et 1 volume pour la biographie de l'auteur
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rééditions de l'œuvre intégrale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1924 : Librairie Delagrave, édition définitive illustrée, 10 volumes de souvenirs et 1 volume pour la biographie de l'auteur
 1979 : éditions du Layet
 1985-1988 : éditions Sciences Nat en 10 volumes illustrés
 1989 : éditions Robert Laffont, collection Bouquins, en deux tomes :
 tome 1 :  (ISBN 978-2-221-05462-8)
-tome 2 :  (ISBN 978-2-221-05463-5)
-1907-2007 : centenaire des Souvenirs entomologiques
-À l'occasion du centenaire de l'œuvre de Jean-Henri Fabre, de nombreuses rééditions ont été publiées au Japon. En Corée du Sud, l'œuvre a été pour la première fois intégralement traduite et publiée avec la biographie d'Yves Delange.
+tome 2 :  (ISBN 978-2-221-05463-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Souvenirs_entomologiques</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Rééditions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1907-2007 : centenaire des Souvenirs entomologiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion du centenaire de l'œuvre de Jean-Henri Fabre, de nombreuses rééditions ont été publiées au Japon. En Corée du Sud, l'œuvre a été pour la première fois intégralement traduite et publiée avec la biographie d'Yves Delange.
 </t>
         </is>
       </c>
